--- a/source_plates/221004_arpae_plasmids.xlsx
+++ b/source_plates/221004_arpae_plasmids.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD866CE-4113-49C2-921F-EE4D04A39AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC96E5C-D8E5-496F-B9A2-677741E20116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15075" yWindow="3735" windowWidth="12360" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Item</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>P4</t>
+  </si>
+  <si>
+    <t>Mdh</t>
+  </si>
+  <si>
+    <t>P5</t>
   </si>
 </sst>
 </file>
@@ -154,12 +160,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,18 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="5" width="21.140625" customWidth="1"/>
+    <col min="1" max="5" width="21.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -506,7 +515,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -523,7 +532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -540,7 +549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -557,7 +566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -572,6 +581,24 @@
       </c>
       <c r="E6">
         <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <f>235.4/5</f>
+        <v>47.08</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/source_plates/221004_arpae_plasmids.xlsx
+++ b/source_plates/221004_arpae_plasmids.xlsx
@@ -1,122 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD866CE-4113-49C2-921F-EE4D04A39AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="15075" yWindow="3735" windowWidth="12360" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Well</t>
-  </si>
-  <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>P70_GFP</t>
-  </si>
-  <si>
-    <t>Pyc</t>
-  </si>
-  <si>
-    <t>Fdh</t>
-  </si>
-  <si>
-    <t>biotin</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,57 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,119 +420,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="21.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PlateID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Well</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Concentration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>New Volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>65</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>55.2,</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>biotin</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>biotin</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" t="n">
         <v>65</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>64.4,</t>
+        </is>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Pyc</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pyc</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>55</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>54.2,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Fdh</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fdh</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>40</v>
       </c>
-      <c r="E3">
+      <c r="F5" t="n">
         <v>65</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>63.8,</t>
+        </is>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>44.1</v>
-      </c>
-      <c r="E4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>P70_GFP</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>P70_GFP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>33</v>
       </c>
-      <c r="E6">
+      <c r="F6" t="n">
         <v>37</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>35.15,</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>